--- a/Factures_Extraites_Multifichiers.xlsx
+++ b/Factures_Extraites_Multifichiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TW1_034528062</t>
+          <t>TW1_034480724</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5, Rue de la Bastille, 75004 PARIS- 4EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>108, Rue Legendre, 75017 PARIS-17EME</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27,20 €</t>
+          <t>11,70 €</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>TW1_034481838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75, Boulevard du Général Leclerc, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TW1_034481846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59, Avenue de Saint-Ouen, 75017 PARIS-17EME</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17,10 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TW1_034523927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8B, Rue Charles V, 75004 PARIS- 4EME</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12, Rue de l'Abreuvoir, 78750 MAREIL-MARLY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>86,60 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TW1_034528062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5, Rue de la Bastille, 75004 PARIS- 4EME</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27,20 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>TW1_034539180</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>13/11/2024</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>19,40 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TW1_034564213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>40,80 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TW1_034565406</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>46,80 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TW1_034567946</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>106, Boulevard Bessières, 75017 PARIS-17EME</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>24,10 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TW1_034579926</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>20,30 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TW1_034586624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TW1_034637439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1, Rue Georges Berger, 75017 PARIS-17EME</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33, Boulevard Lannes, 75016 PARIS-16EME</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15,60 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TW1_034676508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1, Avenue Charles De Gaulle, 92100 BOULOGNE-BILLANCOURT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>36,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TW1_034784453</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33, Boulevard Lannes, 75016 PARIS-16EME</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25,30 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TW1_034784981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TW1_034792587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8, Rue Yves Du Manoir, 92420 VAUCRESSON</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>34,60 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TW1_034811928</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>18,30 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TW1_034854571</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GARE DE LYON</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>41,90 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TW1_034858960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>37,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TW1_034860679</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>41,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TW1_034875990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17,60 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TW1_034900543</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13, Rue de Montevideo, 75016 PARIS-16EME</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14,70 €</t>
         </is>
       </c>
     </row>

--- a/Factures_Extraites_Multifichiers.xlsx
+++ b/Factures_Extraites_Multifichiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TW1_034374028</t>
+          <t>TW1_034392567</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/11/2024</t>
+          <t>05/11/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19,00 €</t>
+          <t>16,80 €</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TW1_034380656</t>
+          <t>TW1_034480724</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/11/2024</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>108, Rue Legendre, 75017 PARIS-17EME</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26,60 €</t>
+          <t>11,70 €</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TW1_034392567</t>
+          <t>TW1_034481838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05/11/2024</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>75, Boulevard du Général Leclerc, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16,80 €</t>
+          <t>23,00 €</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TW1_034480724</t>
+          <t>TW1_034481846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>59, Avenue de Saint-Ouen, 75017 PARIS-17EME</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>108, Rue Legendre, 75017 PARIS-17EME</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11,70 €</t>
+          <t>17,10 €</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TW1_034481838</t>
+          <t>TW1_034523927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75, Boulevard du Général Leclerc, 92110 CLICHY</t>
+          <t>8B, Rue Charles V, 75004 PARIS- 4EME</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>12, Rue de l'Abreuvoir, 78750 MAREIL-MARLY</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23,00 €</t>
+          <t>86,60 €</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TW1_034481846</t>
+          <t>TW1_034528062</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>59, Avenue de Saint-Ouen, 75017 PARIS-17EME</t>
+          <t>5, Rue de la Bastille, 75004 PARIS- 4EME</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17,10 €</t>
+          <t>27,20 €</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TW1_034523927</t>
+          <t>TW1_034539180</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8B, Rue Charles V, 75004 PARIS- 4EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12, Rue de l'Abreuvoir, 78750 MAREIL-MARLY</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>86,60 €</t>
+          <t>19,40 €</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TW1_034528062</t>
+          <t>TW1_034564213</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5, Rue de la Bastille, 75004 PARIS- 4EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>27,20 €</t>
+          <t>40,80 €</t>
         </is>
       </c>
     </row>
@@ -711,503 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TW1_034539180</t>
+          <t>TW1_034565406</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19,40 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TW1_034564213</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>40,80 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TW1_034565406</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>46,80 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TW1_034567946</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>106, Boulevard Bessières, 75017 PARIS-17EME</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>24,10 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TW1_034579926</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>20,30 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TW1_034586624</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>24,50 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TW1_034637439</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1, Rue Georges Berger, 75017 PARIS-17EME</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>33, Boulevard Lannes, 75016 PARIS-16EME</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15,60 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TW1_034676508</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1, Avenue Charles De Gaulle, 92100 BOULOGNE-BILLANCOURT</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>36,50 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TW1_034784453</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>33, Boulevard Lannes, 75016 PARIS-16EME</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>25,30 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TW1_034784981</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>24,00 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TW1_034792587</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8, Rue Yves Du Manoir, 92420 VAUCRESSON</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>34,60 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TW1_034811928</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>18,30 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TW1_034854571</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>GARE DE LYON</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>41,90 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TW1_034858960</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>37,50 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TW1_034860679</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>41,50 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TW1_034875990</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>29/11/2024</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>17,60 €</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TW1_034900543</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>30/11/2024</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13, Rue de Montevideo, 75016 PARIS-16EME</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>14,70 €</t>
         </is>
       </c>
     </row>

--- a/Factures_Extraites_Multifichiers.xlsx
+++ b/Factures_Extraites_Multifichiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TW1_034392567</t>
+          <t>TW1_033734965</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05/11/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16,80 €</t>
+          <t>24,00 €</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TW1_034480724</t>
+          <t>TW1_033780472</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>03/10/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>108, Rue Legendre, 75017 PARIS-17EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11,70 €</t>
+          <t>32,70 €</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TW1_034481838</t>
+          <t>TW1_033791184</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>04/10/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75, Boulevard du Général Leclerc, 92110 CLICHY</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>23,00 €</t>
+          <t>20,00 €</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TW1_034481846</t>
+          <t>TW1_033844533</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>59, Avenue de Saint-Ouen, 75017 PARIS-17EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17,10 €</t>
+          <t>29,50 €</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TW1_034523927</t>
+          <t>TW1_033856935</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8B, Rue Charles V, 75004 PARIS- 4EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12, Rue de l'Abreuvoir, 78750 MAREIL-MARLY</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>86,60 €</t>
+          <t>23,10 €</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TW1_034528062</t>
+          <t>TW1_033894205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5, Rue de la Bastille, 75004 PARIS- 4EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27,20 €</t>
+          <t>22,40 €</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TW1_034539180</t>
+          <t>TW1_033901495</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
+          <t>15, Rue Charles Duflos, 92270 BOIS-COLOMBES</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>19,40 €</t>
+          <t>21,10 €</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TW1_034564213</t>
+          <t>TW1_033904405</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>15, Rue Charles Duflos, 92270 BOIS-COLOMBES</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40,80 €</t>
+          <t>32,90 €</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,477 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TW1_034565406</t>
+          <t>TW1_033914388</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>10/10/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14, Rue Brey, 75017 PARIS-17EME</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26,10 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TW1_033921137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>46,80 €</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>36,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TW1_033922913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>35,90 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TW1_033959456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TW1_033963072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15,20 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TW1_033995004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>182, Boulevard de Jardy, 92430 MARNES-LA-COQUETTE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>48,20 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TW1_033997728</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>182, Boulevard de Jardy, 92430 MARNES-LA-COQUETTE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>48,40 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TW1_034007425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49, Rue de Neuilly, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>27,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TW1_034013079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5, Rue de la Paix, 75002 PARIS- 2EME</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30,30 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TW1_034038533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>26,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TW1_034076775</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14, Rue Collange, 92300 LEVALLOIS-PERRET</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>20,40 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TW1_034155643</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4, Rue Baudin, 92300 LEVALLOIS-PERRET</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>26,40 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TW1_034158862</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4, Rue Baudin, 92300 LEVALLOIS-PERRET</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>18,70 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TW1_034169499</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>80, Boulevard Malesherbes, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19,10 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TW1_034175264</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28, Rue Petit, 92110 CLICHY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24,30 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TW1_034185042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GARE DE LYON</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>37,20 €</t>
         </is>
       </c>
     </row>

--- a/Factures_Extraites_Multifichiers.xlsx
+++ b/Factures_Extraites_Multifichiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TW1_033146195</t>
+          <t>TW1_033791184</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02/09/2024</t>
+          <t>04/10/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21,20 €</t>
+          <t>20,00 €</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TW1_033146195_004089382_00302432711.pdf</t>
+          <t>TW1_033791184_004089382_00304015690.pdf</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TW1_033148339</t>
+          <t>TW1_033844533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02/09/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8, Rue Yves Du Manoir, 92420 VAUCRESSON</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38,50 €</t>
+          <t>29,50 €</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW1_033148339_004089382_00302438254.pdf</t>
+          <t>TW1_033844533_004089382_00304130605.pdf</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TW1_033201665</t>
+          <t>TW1_033856935</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05/09/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87, Avenue du Général Michel Bizot, 75012 PARIS-12EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>36,30 €</t>
+          <t>23,10 €</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TW1_033201665_004089382_00302576801.pdf</t>
+          <t>TW1_033856935_004089382_00304167026.pdf</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TW1_033204903</t>
+          <t>TW1_033894205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>05/09/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21,50 €</t>
+          <t>22,40 €</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TW1_033204903_004089382_00302586283.pdf</t>
+          <t>TW1_033894205_004089382_00304261950.pdf</t>
         </is>
       </c>
     </row>
@@ -616,137 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TW1_033210178</t>
+          <t>TW1_033901495</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05/09/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>28, Rue Petit, 92110 CLICHY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
+          <t>15, Rue Charles Duflos, 92270 BOIS-COLOMBES</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9,00 €</t>
+          <t>21,10 €</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TW1_033210178_004089382_00302601005.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TW1_033210922</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>18,00 €</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TW1_033210922_004089382_00302601679.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TW1_033276579</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>22,70 €</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TW1_033276579_004089382_00302746943.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TW1_033280895</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28, Rue Petit, 92110 CLICHY</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17, Rue de Téhéran, 75008 PARIS- 8EME</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20,60 €</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>TW1_033280895_004089382_00302760456.pdf</t>
+          <t>TW1_033901495_004089382_00304282644.pdf</t>
         </is>
       </c>
     </row>
